--- a/data/trans_dic/P5_6-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_6-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de luz natural suficiente en su vivienda</t>
+          <t>Población que disfruta de luz natural suficiente en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>89,62%</t>
+          <t>82,8%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>95,45%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>91,32%</t>
+          <t>87,46%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,35; 96,16</t>
+          <t>83,49; 95,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,14; 94,4</t>
+          <t>58,22; 92,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>94,13; 98,24</t>
+          <t>89,47; 98,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88,32; 95,75</t>
+          <t>84,64; 95,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,38; 96,87</t>
+          <t>88,66; 96,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,05; 94,2</t>
+          <t>75,77; 92,2</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>95,33%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>93,73; 97,14</t>
+          <t>92,92; 97,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,53; 96,61</t>
+          <t>92,77; 97,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,01; 96,31</t>
+          <t>93,8; 98,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91,25; 95,44</t>
+          <t>92,62; 97,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,09; 96,49</t>
+          <t>94,3; 97,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,61; 95,57</t>
+          <t>93,42; 96,73</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>98,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>94,31%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>94,9; 98,48</t>
+          <t>95,62; 99,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,71; 97,08</t>
+          <t>90,45; 97,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,11; 96,46</t>
+          <t>91,37; 97,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,01; 96,0</t>
+          <t>90,64; 96,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,14; 96,97</t>
+          <t>94,24; 97,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,53; 96,12</t>
+          <t>91,44; 95,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>93,23%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>93,69; 96,97</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>90,56; 95,44</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>92,97; 96,26</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>90,57; 94,98</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>94,15; 96,26</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>91,33; 94,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>95,76%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>93,18%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>95,2%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>93,64%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>95,47%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>93,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
           <t>94,52; 96,75</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>91,18; 95,34</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>94,02; 96,29</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>91,79; 94,86</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>94,66; 96,2</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>92,29; 94,87</t>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>90,21; 94,72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>94,08; 96,29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>92,09; 94,95</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>94,65; 96,17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>92,02; 94,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de luz natural suficiente en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>206370</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>280875</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>248019</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>384641</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>454389</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>665516</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>189105; 216915</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>197488; 313177</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>234142; 257209</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>356925; 403924</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>432803; 468974</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>576577; 701531</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>550.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>658.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>624310</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>890578</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>690310</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>951756</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1314620</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1842333</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>604756; 636259</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>865093; 907981</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>670748; 701919</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>926162; 969942</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1288135; 1332441</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1805350; 1869375</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>420.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>525.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>448103</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>677229</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>502761</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>723129</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>950865</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1400358</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>435742; 453613</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>647275; 694715</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>485788; 516529</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>697158; 742459</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>930520; 965043</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1357729; 1425203</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>769.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>436.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>876.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>481.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1645.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>917.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2022434</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1360978</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1984338</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1306043</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4006772</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2667020</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1981081; 2050278</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1319745; 1390914</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1942870; 2011635</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1271030; 1332997</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3958068; 4046950</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2612847; 2711696</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1289.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1080.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1519.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1263.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2808.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2343.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3301219</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3209659</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3425428</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3365568</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6726646</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6575228</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3258369; 3335430</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3107515; 3262949</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3385289; 3464854</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3310170; 3412647</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6668892; 6776016</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6477367; 6648801</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>